--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H2">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I2">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J2">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N2">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q2">
-        <v>22.38537724617473</v>
+        <v>0.04604580281822222</v>
       </c>
       <c r="R2">
-        <v>22.38537724617473</v>
+        <v>0.414412225364</v>
       </c>
       <c r="S2">
-        <v>0.0002458959722885283</v>
+        <v>4.501144561560118E-07</v>
       </c>
       <c r="T2">
-        <v>0.0002458959722885283</v>
+        <v>4.501144561560118E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H3">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I3">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J3">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N3">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q3">
-        <v>31.60248985149404</v>
+        <v>0.02113125542355556</v>
       </c>
       <c r="R3">
-        <v>31.60248985149404</v>
+        <v>0.190181298812</v>
       </c>
       <c r="S3">
-        <v>0.0003471429086637079</v>
+        <v>2.065657011219142E-07</v>
       </c>
       <c r="T3">
-        <v>0.0003471429086637079</v>
+        <v>2.065657011219141E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H4">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I4">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J4">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N4">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q4">
-        <v>23.97354439411438</v>
+        <v>28.996648712794</v>
       </c>
       <c r="R4">
-        <v>23.97354439411438</v>
+        <v>260.969838415146</v>
       </c>
       <c r="S4">
-        <v>0.0002633414636333774</v>
+        <v>0.0002834527789043359</v>
       </c>
       <c r="T4">
-        <v>0.0002633414636333774</v>
+        <v>0.0002834527789043359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397114332287014</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H5">
-        <v>0.397114332287014</v>
+        <v>1.427059</v>
       </c>
       <c r="I5">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J5">
-        <v>0.0008623120196594336</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N5">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O5">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P5">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q5">
-        <v>0.5399957672888959</v>
+        <v>39.11266563041067</v>
       </c>
       <c r="R5">
-        <v>0.5399957672888959</v>
+        <v>352.0139906736961</v>
       </c>
       <c r="S5">
-        <v>5.931675073820042E-06</v>
+        <v>0.0003823405205583068</v>
       </c>
       <c r="T5">
-        <v>5.931675073820042E-06</v>
+        <v>0.0003823405205583067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.543030545380261</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H6">
-        <v>0.543030545380261</v>
+        <v>1.427059</v>
       </c>
       <c r="I6">
-        <v>0.001179161083476536</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J6">
-        <v>0.001179161083476536</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N6">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q6">
-        <v>30.61068973392642</v>
+        <v>30.15647157046644</v>
       </c>
       <c r="R6">
-        <v>30.61068973392642</v>
+        <v>271.408244134198</v>
       </c>
       <c r="S6">
-        <v>0.0003362483120909902</v>
+        <v>0.0002947904688318953</v>
       </c>
       <c r="T6">
-        <v>0.0003362483120909902</v>
+        <v>0.0002947904688318953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.543030545380261</v>
+        <v>0.4756863333333334</v>
       </c>
       <c r="H7">
-        <v>0.543030545380261</v>
+        <v>1.427059</v>
       </c>
       <c r="I7">
-        <v>0.001179161083476536</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="J7">
-        <v>0.001179161083476536</v>
+        <v>0.0009688106486373032</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N7">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q7">
-        <v>43.21455033012455</v>
+        <v>0.774416240731889</v>
       </c>
       <c r="R7">
-        <v>43.21455033012455</v>
+        <v>6.969746166587001</v>
       </c>
       <c r="S7">
-        <v>0.0004746975560688114</v>
+        <v>7.570200185487296E-06</v>
       </c>
       <c r="T7">
-        <v>0.0004746975560688114</v>
+        <v>7.570200185487296E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.543030545380261</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H8">
-        <v>0.543030545380261</v>
+        <v>2.046143</v>
       </c>
       <c r="I8">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J8">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N8">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q8">
-        <v>32.78241510967381</v>
+        <v>0.06602130473644444</v>
       </c>
       <c r="R8">
-        <v>32.78241510967381</v>
+        <v>0.5941917426279999</v>
       </c>
       <c r="S8">
-        <v>0.0003601039977441917</v>
+        <v>6.453822467483337E-07</v>
       </c>
       <c r="T8">
-        <v>0.0003601039977441917</v>
+        <v>6.453822467483337E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.543030545380261</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H9">
-        <v>0.543030545380261</v>
+        <v>2.046143</v>
       </c>
       <c r="I9">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J9">
-        <v>0.001179161083476536</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N9">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q9">
-        <v>0.7384125229758439</v>
+        <v>0.03029837614711111</v>
       </c>
       <c r="R9">
-        <v>0.7384125229758439</v>
+        <v>0.272685385324</v>
       </c>
       <c r="S9">
-        <v>8.111217572542721E-06</v>
+        <v>2.961776376384556E-07</v>
       </c>
       <c r="T9">
-        <v>8.111217572542721E-06</v>
+        <v>2.961776376384555E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>108.485219539024</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H10">
-        <v>108.485219539024</v>
+        <v>2.046143</v>
       </c>
       <c r="I10">
-        <v>0.2355697116876684</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J10">
-        <v>0.2355697116876684</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N10">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q10">
-        <v>6115.323390695338</v>
+        <v>41.57591927673799</v>
       </c>
       <c r="R10">
-        <v>6115.323390695338</v>
+        <v>374.183273490642</v>
       </c>
       <c r="S10">
-        <v>0.06717480677127173</v>
+        <v>0.0004064197201276573</v>
       </c>
       <c r="T10">
-        <v>0.06717480677127173</v>
+        <v>0.0004064197201276573</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>108.485219539024</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H11">
-        <v>108.485219539024</v>
+        <v>2.046143</v>
       </c>
       <c r="I11">
-        <v>0.2355697116876684</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J11">
-        <v>0.2355697116876684</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N11">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O11">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P11">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q11">
-        <v>8633.289636701489</v>
+        <v>56.08044726322134</v>
       </c>
       <c r="R11">
-        <v>8633.289636701489</v>
+        <v>504.724025368992</v>
       </c>
       <c r="S11">
-        <v>0.09483383397650598</v>
+        <v>0.0005482067523183943</v>
       </c>
       <c r="T11">
-        <v>0.09483383397650598</v>
+        <v>0.0005482067523183942</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>108.485219539024</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H12">
-        <v>108.485219539024</v>
+        <v>2.046143</v>
       </c>
       <c r="I12">
-        <v>0.2355697116876684</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J12">
-        <v>0.2355697116876684</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N12">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q12">
-        <v>6549.184996033659</v>
+        <v>43.23889426338288</v>
       </c>
       <c r="R12">
-        <v>6549.184996033659</v>
+        <v>389.1500483704459</v>
       </c>
       <c r="S12">
-        <v>0.07194063314578857</v>
+        <v>0.0004226759049675597</v>
       </c>
       <c r="T12">
-        <v>0.07194063314578857</v>
+        <v>0.0004226759049675596</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>108.485219539024</v>
+        <v>0.6820476666666666</v>
       </c>
       <c r="H13">
-        <v>108.485219539024</v>
+        <v>2.046143</v>
       </c>
       <c r="I13">
-        <v>0.2355697116876684</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="J13">
-        <v>0.2355697116876684</v>
+        <v>0.001389098227217429</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N13">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q13">
-        <v>147.5181190945781</v>
+        <v>1.110372009888778</v>
       </c>
       <c r="R13">
-        <v>147.5181190945781</v>
+        <v>9.993348088998999</v>
       </c>
       <c r="S13">
-        <v>0.001620437794102166</v>
+        <v>1.085428991943117E-05</v>
       </c>
       <c r="T13">
-        <v>0.001620437794102166</v>
+        <v>1.085428991943117E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>153.836566482788</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H14">
-        <v>153.836566482788</v>
+        <v>370.234135</v>
       </c>
       <c r="I14">
-        <v>0.3340476773459017</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J14">
-        <v>0.3340476773459017</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N14">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q14">
-        <v>8671.783652685002</v>
+        <v>11.94605687416222</v>
       </c>
       <c r="R14">
-        <v>8671.783652685002</v>
+        <v>107.51451186746</v>
       </c>
       <c r="S14">
-        <v>0.09525667802257508</v>
+        <v>0.0001167770472881054</v>
       </c>
       <c r="T14">
-        <v>0.09525667802257508</v>
+        <v>0.0001167770472881054</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>153.836566482788</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H15">
-        <v>153.836566482788</v>
+        <v>370.234135</v>
       </c>
       <c r="I15">
-        <v>0.3340476773459017</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J15">
-        <v>0.3340476773459017</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N15">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q15">
-        <v>12242.3648198808</v>
+        <v>5.482262522575556</v>
       </c>
       <c r="R15">
-        <v>12242.3648198808</v>
+        <v>49.34036270318001</v>
       </c>
       <c r="S15">
-        <v>0.1344783323233867</v>
+        <v>5.359110847942546E-05</v>
       </c>
       <c r="T15">
-        <v>0.1344783323233867</v>
+        <v>5.359110847942546E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>153.836566482788</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H16">
-        <v>153.836566482788</v>
+        <v>370.234135</v>
       </c>
       <c r="I16">
-        <v>0.3340476773459017</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J16">
-        <v>0.3340476773459017</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N16">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q16">
-        <v>9287.017506453893</v>
+        <v>7522.84884793141</v>
       </c>
       <c r="R16">
-        <v>9287.017506453893</v>
+        <v>67705.6396313827</v>
       </c>
       <c r="S16">
-        <v>0.1020148186155897</v>
+        <v>0.07353858138380616</v>
       </c>
       <c r="T16">
-        <v>0.1020148186155897</v>
+        <v>0.07353858138380616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>153.836566482788</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H17">
-        <v>153.836566482788</v>
+        <v>370.234135</v>
       </c>
       <c r="I17">
-        <v>0.3340476773459017</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J17">
-        <v>0.3340476773459017</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N17">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O17">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P17">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q17">
-        <v>209.1868462076125</v>
+        <v>10147.33373127483</v>
       </c>
       <c r="R17">
-        <v>209.1868462076125</v>
+        <v>91326.00358147346</v>
       </c>
       <c r="S17">
-        <v>0.002297848384350174</v>
+        <v>0.09919387488839244</v>
       </c>
       <c r="T17">
-        <v>0.002297848384350174</v>
+        <v>0.09919387488839243</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>197.159157163676</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H18">
-        <v>197.159157163676</v>
+        <v>370.234135</v>
       </c>
       <c r="I18">
-        <v>0.4281203099093503</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J18">
-        <v>0.4281203099093503</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N18">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q18">
-        <v>11113.88270785679</v>
+        <v>7823.751622423274</v>
       </c>
       <c r="R18">
-        <v>11113.88270785679</v>
+        <v>70413.76460180947</v>
       </c>
       <c r="S18">
-        <v>0.1220823292051558</v>
+        <v>0.07648001535621247</v>
       </c>
       <c r="T18">
-        <v>0.1220823292051558</v>
+        <v>0.07648001535621246</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>197.159157163676</v>
+        <v>123.4113783333333</v>
       </c>
       <c r="H19">
-        <v>197.159157163676</v>
+        <v>370.234135</v>
       </c>
       <c r="I19">
-        <v>0.4281203099093503</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="J19">
-        <v>0.4281203099093503</v>
+        <v>0.2513468416351538</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N19">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q19">
-        <v>15689.99090894293</v>
+        <v>200.9134359667839</v>
       </c>
       <c r="R19">
-        <v>15689.99090894293</v>
+        <v>1808.220923701055</v>
       </c>
       <c r="S19">
-        <v>0.1723493657187294</v>
+        <v>0.001964001850975137</v>
       </c>
       <c r="T19">
-        <v>0.1723493657187294</v>
+        <v>0.001964001850975137</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>197.159157163676</v>
+        <v>156.175644</v>
       </c>
       <c r="H20">
-        <v>197.159157163676</v>
+        <v>468.526932</v>
       </c>
       <c r="I20">
-        <v>0.4281203099093503</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J20">
-        <v>0.4281203099093503</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N20">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q20">
-        <v>11902.37526746684</v>
+        <v>15.117594105008</v>
       </c>
       <c r="R20">
-        <v>11902.37526746684</v>
+        <v>136.058346945072</v>
       </c>
       <c r="S20">
-        <v>0.1307436594322672</v>
+        <v>0.0001477799762950409</v>
       </c>
       <c r="T20">
-        <v>0.1307436594322672</v>
+        <v>0.0001477799762950408</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>197.159157163676</v>
+        <v>156.175644</v>
       </c>
       <c r="H21">
-        <v>197.159157163676</v>
+        <v>468.526932</v>
       </c>
       <c r="I21">
-        <v>0.4281203099093503</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J21">
-        <v>0.4281203099093503</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N21">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P21">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q21">
-        <v>268.0968720959779</v>
+        <v>6.937738574864</v>
       </c>
       <c r="R21">
-        <v>268.0968720959779</v>
+        <v>62.439647173776</v>
       </c>
       <c r="S21">
-        <v>0.002944955553197969</v>
+        <v>6.781891582834305E-05</v>
       </c>
       <c r="T21">
-        <v>0.002944955553197969</v>
+        <v>6.781891582834303E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.101696304216272</v>
+        <v>156.175644</v>
       </c>
       <c r="H22">
-        <v>0.101696304216272</v>
+        <v>468.526932</v>
       </c>
       <c r="I22">
-        <v>0.000220827953943634</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J22">
-        <v>0.000220827953943634</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N22">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O22">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P22">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q22">
-        <v>5.732631510206115</v>
+        <v>9520.076506778711</v>
       </c>
       <c r="R22">
-        <v>5.732631510206115</v>
+        <v>85680.6885610084</v>
       </c>
       <c r="S22">
-        <v>6.297106291630037E-05</v>
+        <v>0.09306220756599608</v>
       </c>
       <c r="T22">
-        <v>6.297106291630037E-05</v>
+        <v>0.09306220756599608</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.101696304216272</v>
+        <v>156.175644</v>
       </c>
       <c r="H23">
-        <v>0.101696304216272</v>
+        <v>468.526932</v>
       </c>
       <c r="I23">
-        <v>0.000220827953943634</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J23">
-        <v>0.000220827953943634</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N23">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O23">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P23">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q23">
-        <v>8.09302551086566</v>
+        <v>12841.33117842931</v>
       </c>
       <c r="R23">
-        <v>8.09302551086566</v>
+        <v>115571.9806058638</v>
       </c>
       <c r="S23">
-        <v>8.889921107272111E-05</v>
+        <v>0.1255286789659477</v>
       </c>
       <c r="T23">
-        <v>8.889921107272111E-05</v>
+        <v>0.1255286789659477</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.101696304216272</v>
+        <v>156.175644</v>
       </c>
       <c r="H24">
-        <v>0.101696304216272</v>
+        <v>468.526932</v>
       </c>
       <c r="I24">
-        <v>0.000220827953943634</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J24">
-        <v>0.000220827953943634</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N24">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O24">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P24">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q24">
-        <v>6.139342415080807</v>
+        <v>9900.865419618855</v>
       </c>
       <c r="R24">
-        <v>6.139342415080807</v>
+        <v>89107.78877656969</v>
       </c>
       <c r="S24">
-        <v>6.743864781758228E-05</v>
+        <v>0.09678455757235652</v>
       </c>
       <c r="T24">
-        <v>6.743864781758228E-05</v>
+        <v>0.0967845575723565</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.101696304216272</v>
+        <v>156.175644</v>
       </c>
       <c r="H25">
-        <v>0.101696304216272</v>
+        <v>468.526932</v>
       </c>
       <c r="I25">
-        <v>0.000220827953943634</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="J25">
-        <v>0.000220827953943634</v>
+        <v>0.3180764641791023</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N25">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O25">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P25">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q25">
-        <v>0.1382865571973882</v>
+        <v>254.253584022164</v>
       </c>
       <c r="R25">
-        <v>0.1382865571973882</v>
+        <v>2288.282256199476</v>
       </c>
       <c r="S25">
-        <v>1.519032137030242E-06</v>
+        <v>0.002485421182678637</v>
       </c>
       <c r="T25">
-        <v>1.519032137030242E-06</v>
+        <v>0.002485421182678637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>210.0997873333333</v>
+      </c>
+      <c r="H26">
+        <v>630.299362</v>
+      </c>
+      <c r="I26">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="J26">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.290396</v>
+      </c>
+      <c r="O26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q26">
+        <v>20.33737928081689</v>
+      </c>
+      <c r="R26">
+        <v>183.036413527352</v>
+      </c>
+      <c r="S26">
+        <v>0.0001988052733223442</v>
+      </c>
+      <c r="T26">
+        <v>0.0001988052733223442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>210.0997873333333</v>
+      </c>
+      <c r="H27">
+        <v>630.299362</v>
+      </c>
+      <c r="I27">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="J27">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.133268</v>
+      </c>
+      <c r="O27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q27">
+        <v>9.333192819446221</v>
+      </c>
+      <c r="R27">
+        <v>83.998735375016</v>
+      </c>
+      <c r="S27">
+        <v>9.123535160650342E-05</v>
+      </c>
+      <c r="T27">
+        <v>9.123535160650342E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>210.0997873333333</v>
+      </c>
+      <c r="H28">
+        <v>630.299362</v>
+      </c>
+      <c r="I28">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="J28">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N28">
+        <v>182.872494</v>
+      </c>
+      <c r="O28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q28">
+        <v>12807.15736617209</v>
+      </c>
+      <c r="R28">
+        <v>115264.4162955488</v>
+      </c>
+      <c r="S28">
+        <v>0.125194617531952</v>
+      </c>
+      <c r="T28">
+        <v>0.125194617531952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>210.0997873333333</v>
+      </c>
+      <c r="H29">
+        <v>630.299362</v>
+      </c>
+      <c r="I29">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="J29">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N29">
+        <v>246.670944</v>
+      </c>
+      <c r="O29">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P29">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q29">
+        <v>17275.17095857086</v>
+      </c>
+      <c r="R29">
+        <v>155476.5386271377</v>
+      </c>
+      <c r="S29">
+        <v>0.1688710741284338</v>
+      </c>
+      <c r="T29">
+        <v>0.1688710741284338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>210.0997873333333</v>
+      </c>
+      <c r="H30">
+        <v>630.299362</v>
+      </c>
+      <c r="I30">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="J30">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N30">
+        <v>190.187122</v>
+      </c>
+      <c r="O30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q30">
+        <v>13319.42462857957</v>
+      </c>
+      <c r="R30">
+        <v>119874.8216572161</v>
+      </c>
+      <c r="S30">
+        <v>0.1302022161861734</v>
+      </c>
+      <c r="T30">
+        <v>0.1302022161861734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>210.0997873333333</v>
+      </c>
+      <c r="H31">
+        <v>630.299362</v>
+      </c>
+      <c r="I31">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="J31">
+        <v>0.4279015329673814</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N31">
+        <v>4.883993</v>
+      </c>
+      <c r="O31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q31">
+        <v>342.0419635458296</v>
+      </c>
+      <c r="R31">
+        <v>3078.377671912466</v>
+      </c>
+      <c r="S31">
+        <v>0.003343584495893248</v>
+      </c>
+      <c r="T31">
+        <v>0.003343584495893249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.155771</v>
+      </c>
+      <c r="H32">
+        <v>0.467313</v>
+      </c>
+      <c r="I32">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="J32">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N32">
+        <v>0.290396</v>
+      </c>
+      <c r="O32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q32">
+        <v>0.01507842510533333</v>
+      </c>
+      <c r="R32">
+        <v>0.135705825948</v>
+      </c>
+      <c r="S32">
+        <v>1.473970850887275E-07</v>
+      </c>
+      <c r="T32">
+        <v>1.473970850887274E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.155771</v>
+      </c>
+      <c r="H33">
+        <v>0.467313</v>
+      </c>
+      <c r="I33">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="J33">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.133268</v>
+      </c>
+      <c r="O33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q33">
+        <v>0.006919763209333333</v>
+      </c>
+      <c r="R33">
+        <v>0.062277868884</v>
+      </c>
+      <c r="S33">
+        <v>6.76432000978131E-08</v>
+      </c>
+      <c r="T33">
+        <v>6.764320009781309E-08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.155771</v>
+      </c>
+      <c r="H34">
+        <v>0.467313</v>
+      </c>
+      <c r="I34">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="J34">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N34">
+        <v>182.872494</v>
+      </c>
+      <c r="O34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q34">
+        <v>9.495410420957999</v>
+      </c>
+      <c r="R34">
+        <v>85.45869378862199</v>
+      </c>
+      <c r="S34">
+        <v>9.282108761314136E-05</v>
+      </c>
+      <c r="T34">
+        <v>9.282108761314136E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.155771</v>
+      </c>
+      <c r="H35">
+        <v>0.467313</v>
+      </c>
+      <c r="I35">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="J35">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N35">
+        <v>246.670944</v>
+      </c>
+      <c r="O35">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P35">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q35">
+        <v>12.808059872608</v>
+      </c>
+      <c r="R35">
+        <v>115.272538853472</v>
+      </c>
+      <c r="S35">
+        <v>0.000125203439860345</v>
+      </c>
+      <c r="T35">
+        <v>0.000125203439860345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.155771</v>
+      </c>
+      <c r="H36">
+        <v>0.467313</v>
+      </c>
+      <c r="I36">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="J36">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N36">
+        <v>190.187122</v>
+      </c>
+      <c r="O36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q36">
+        <v>9.875212727020665</v>
+      </c>
+      <c r="R36">
+        <v>88.87691454318599</v>
+      </c>
+      <c r="S36">
+        <v>9.653379317970699E-05</v>
+      </c>
+      <c r="T36">
+        <v>9.653379317970698E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.155771</v>
+      </c>
+      <c r="H37">
+        <v>0.467313</v>
+      </c>
+      <c r="I37">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="J37">
+        <v>0.0003172523425076637</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.883993</v>
+      </c>
+      <c r="O37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q37">
+        <v>0.2535948245343333</v>
+      </c>
+      <c r="R37">
+        <v>2.282353420809</v>
+      </c>
+      <c r="S37">
+        <v>2.478981569283838E-06</v>
+      </c>
+      <c r="T37">
+        <v>2.478981569283838E-06</v>
       </c>
     </row>
   </sheetData>
